--- a/data/trans_camb/P05A_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P05A_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.664628472769429</v>
+        <v>-3.344546712458952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.756827205798654</v>
+        <v>-6.340155900318392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.7736416292772</v>
+        <v>-11.81011219171617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.874612884583247</v>
+        <v>-4.989346948084319</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.722143447443123</v>
+        <v>-6.646553826169432</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-12.43665576666229</v>
+        <v>-12.63572891731673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.447248305582974</v>
+        <v>-3.282340687067625</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.284194046023125</v>
+        <v>-5.308916595026902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.66609109369532</v>
+        <v>-10.84826433144472</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.62268670909054</v>
+        <v>7.081512329454146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.462236207164529</v>
+        <v>3.955744085037594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3522714599751431</v>
+        <v>0.6383323155847496</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.843301839494448</v>
+        <v>3.750265225679882</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.041206070493828</v>
+        <v>1.90408849545656</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.134228717261625</v>
+        <v>-3.310500046609781</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.342228760008278</v>
+        <v>3.233584115290248</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8490213794173042</v>
+        <v>1.477337071483534</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-3.138293635677266</v>
+        <v>-3.116358174694997</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09686571826351888</v>
+        <v>-0.08904095994185003</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1737299993391753</v>
+        <v>-0.1654273469643564</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3192755330423951</v>
+        <v>-0.3236897144109848</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1219025730896786</v>
+        <v>-0.1221820505439188</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.16670894202801</v>
+        <v>-0.163868108148758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3073017319508752</v>
+        <v>-0.3077623588467095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08909620978422436</v>
+        <v>-0.08413443350746724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1374815365869866</v>
+        <v>-0.138142216501993</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2783367592545725</v>
+        <v>-0.279077110667832</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2084216389733931</v>
+        <v>0.2279545225970232</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.108729549696614</v>
+        <v>0.1260326410279301</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.008039818173643879</v>
+        <v>0.01528600715842751</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1079370377741382</v>
+        <v>0.1063194563691527</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05813801353424269</v>
+        <v>0.05269546862276858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08597568011310912</v>
+        <v>-0.08953703918573745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09683621276803689</v>
+        <v>0.0929672873000788</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.02417698612361117</v>
+        <v>0.04288417725436608</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.08890216975761817</v>
+        <v>-0.08939899098752827</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.854380689578031</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-15.990541434745</v>
+        <v>-15.99054143474501</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.778508197254817</v>
+        <v>4.259563027457157</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.563516793070706</v>
+        <v>1.744883469355491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.50546705610822</v>
+        <v>-19.33467139304607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.029856610057005</v>
+        <v>0.6343332381193586</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.499315249945651</v>
+        <v>0.9660908881787075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-19.93813045944231</v>
+        <v>-19.878478888763</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.669548306467595</v>
+        <v>3.658752129320953</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.546002727914107</v>
+        <v>2.973800507058058</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-18.72477613712248</v>
+        <v>-18.75386148211066</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.33664611703732</v>
+        <v>12.67302855814355</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.47062677046432</v>
+        <v>10.59552873937645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-12.02903571048756</v>
+        <v>-11.96936050255577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.370184712674435</v>
+        <v>9.358225031722736</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.59897128944018</v>
+        <v>9.923139162743542</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.88303195205782</v>
+        <v>-12.9912560436505</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.497380536653584</v>
+        <v>9.591837559563409</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.512432396548556</v>
+        <v>8.978227909915535</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-13.44213414198708</v>
+        <v>-13.462007667335</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1848434528743313</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.5048778084059601</v>
+        <v>-0.5048778084059602</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1219780951537751</v>
+        <v>0.1298833532430406</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.04555200133812275</v>
+        <v>0.04833396978482753</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6097041207120985</v>
+        <v>-0.6130169741393945</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02695495719334602</v>
+        <v>0.01868956937719667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04303818078857909</v>
+        <v>0.02387308177637432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5624504026057885</v>
+        <v>-0.5603736248208022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1103785981316292</v>
+        <v>0.1094079205448117</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.078102910036025</v>
+        <v>0.09103771240258662</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5625928051493601</v>
+        <v>-0.5618406407323326</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4348227765156724</v>
+        <v>0.4462033706177196</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3674144046266549</v>
+        <v>0.3688896184859839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4174162317281473</v>
+        <v>-0.427897878180666</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3000628902615737</v>
+        <v>0.2972696259119906</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3453974212094112</v>
+        <v>0.3158366612633361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4114168279265022</v>
+        <v>-0.413215123352017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3144406788109423</v>
+        <v>0.3209224418356582</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2834336823903266</v>
+        <v>0.2972551736819964</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4413521522693624</v>
+        <v>-0.4438500433260726</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.05613862057258</v>
+        <v>14.54106516935136</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.802058780396705</v>
+        <v>4.727737818039335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.15583272654131</v>
+        <v>-13.4102658904608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.157906657488273</v>
+        <v>7.206778786029605</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.45866829841783</v>
+        <v>-4.449542200807513</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.96661351569276</v>
+        <v>-17.38492210190988</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>12.50069363877991</v>
+        <v>12.19450591476862</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.502584762595769</v>
+        <v>1.827671372063918</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.06365220864496</v>
+        <v>-14.09039865316267</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.53744696233182</v>
+        <v>23.17018028717716</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.97643380355468</v>
+        <v>13.22272292725846</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.853961141499443</v>
+        <v>-6.026839307303034</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.34271856605091</v>
+        <v>16.19920711500979</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.649476759562662</v>
+        <v>4.324819916180562</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-10.40087782338576</v>
+        <v>-10.24503569517872</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.49751271237897</v>
+        <v>18.63591368059209</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.737006710844248</v>
+        <v>7.803674098016495</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-9.293265164305453</v>
+        <v>-8.922308983938176</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1698345224435227</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4212744222313481</v>
+        <v>-0.421274422231348</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5394320583626364</v>
+        <v>0.5516473046756197</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1841092756901328</v>
+        <v>0.1809788026194187</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5028928409292811</v>
+        <v>-0.5100518337081344</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2156582519125388</v>
+        <v>0.2187212976744345</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1357479393769006</v>
+        <v>-0.1357076913642389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5390296685002974</v>
+        <v>-0.5264174240481849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4298217502190306</v>
+        <v>0.4138993101623831</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05171040894092849</v>
+        <v>0.06168594168588479</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4864751568967213</v>
+        <v>-0.489991091567895</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9974250319526249</v>
+        <v>1.033047994485746</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5655760596157695</v>
+        <v>0.5795435749347343</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2568693295240677</v>
+        <v>-0.2602876465034987</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5569382019263658</v>
+        <v>0.5626821940455835</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1582483721765164</v>
+        <v>0.1530543719865839</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3572027166970836</v>
+        <v>-0.3565956702662547</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7050665253415678</v>
+        <v>0.7078279218563666</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2946942585649323</v>
+        <v>0.3029181519875996</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3498028737343857</v>
+        <v>-0.3402512985056731</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.017763596704379</v>
+        <v>2.268256800631773</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.998633227136637</v>
+        <v>4.986781249645941</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-17.58824920825688</v>
+        <v>-18.29544081988115</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.468531188577487</v>
+        <v>-0.4126590794691122</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.307986576320194</v>
+        <v>-1.811501205426518</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-21.80750128740417</v>
+        <v>-21.8562099747591</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.852921772711528</v>
+        <v>3.539231061322068</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.658830796096661</v>
+        <v>3.671947252095319</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.95314255666901</v>
+        <v>-17.53362994017849</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.98087380739775</v>
+        <v>15.41379397184835</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.18596387123882</v>
+        <v>17.68344837771778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.302018425873856</v>
+        <v>-6.916331234900531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.40270553974621</v>
+        <v>13.98103639411504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.89809185229092</v>
+        <v>12.12915456178478</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-10.03969234321906</v>
+        <v>-10.24184610619997</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.4042347561593</v>
+        <v>13.07865239488899</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.10732760046802</v>
+        <v>12.911115514039</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.07830805127602</v>
+        <v>-9.73359649872071</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.2384994991302247</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3894904315990956</v>
+        <v>-0.3894904315990957</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08168856700781177</v>
+        <v>0.05844794718025985</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1359741805516057</v>
+        <v>0.1367286626526291</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4731421126298729</v>
+        <v>-0.4782486585625773</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.009630366328744635</v>
+        <v>-0.009265587153154294</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05495050378262288</v>
+        <v>-0.04425528755922202</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5165145322035053</v>
+        <v>-0.5176998952571464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1015327638452845</v>
+        <v>0.09325903456232341</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09322530413632228</v>
+        <v>0.0929577958938433</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4663078591447293</v>
+        <v>-0.4612824091292395</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5141718583293551</v>
+        <v>0.5018912624174247</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5849415476663941</v>
+        <v>0.5862322585852762</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.243099223205853</v>
+        <v>-0.2192996792035735</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3943303806669077</v>
+        <v>0.4113006959296011</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3490739281643592</v>
+        <v>0.3683173618288126</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3019458619543612</v>
+        <v>-0.3117233696901262</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4122802577128787</v>
+        <v>0.3908658848191278</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3955849162417721</v>
+        <v>0.384696184223549</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3115986170487354</v>
+        <v>-0.2927803381351289</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.189563075890083</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-13.9250401126506</v>
+        <v>-13.92504011265061</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.77645638554933</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.948325095788651</v>
+        <v>7.72308526532675</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.262749625773055</v>
+        <v>4.134854212745062</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.30771663150888</v>
+        <v>-13.23834038989328</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.183456343206302</v>
+        <v>3.014273371037468</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.02911970467968151</v>
+        <v>-0.09095370642940848</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-16.09284817954403</v>
+        <v>-15.90844701749097</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.151835610349134</v>
+        <v>6.17661013157184</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.687518970100535</v>
+        <v>2.719091022038121</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-13.83002356502387</v>
+        <v>-14.00746523708435</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.4648112270838</v>
+        <v>12.51575188443319</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.852953733991974</v>
+        <v>8.879856154188017</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-8.825019453294688</v>
+        <v>-8.622097885730144</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.948243650902098</v>
+        <v>7.696031617025664</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.574659390440372</v>
+        <v>4.539566597789719</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-11.85697290357917</v>
+        <v>-11.7299462505516</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.56913357930933</v>
+        <v>9.545300900023006</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.992403551438503</v>
+        <v>5.949655679019769</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-10.85090599300411</v>
+        <v>-10.87924256338009</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.06366099752579754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.4048670503806867</v>
+        <v>-0.4048670503806869</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.243029932115557</v>
@@ -1625,7 +1625,7 @@
         <v>0.1346982603128071</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3889614562722922</v>
+        <v>-0.3889614562722921</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2618067445159986</v>
+        <v>0.2540591102467266</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1397955369885326</v>
+        <v>0.1338514566126336</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4324116912334694</v>
+        <v>-0.4305242932718459</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08897816178210553</v>
+        <v>0.08487795645082966</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0009760498455327002</v>
+        <v>-0.002552968918294273</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4503249846506431</v>
+        <v>-0.4470767206271448</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1876562603376849</v>
+        <v>0.187214123698491</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.08193223772143426</v>
+        <v>0.08376142611472756</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4228888296938355</v>
+        <v>-0.42748615609566</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4430517727215888</v>
+        <v>0.4436690615989797</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3136116688059057</v>
+        <v>0.3154085388206908</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.308533821571802</v>
+        <v>-0.3020696923900179</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2395789281285115</v>
+        <v>0.2322232993738207</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.136545191247289</v>
+        <v>0.1387144809544462</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.3533032852589996</v>
+        <v>-0.3550168519141005</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3069589626656508</v>
+        <v>0.3064254696616108</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1918270661986725</v>
+        <v>0.1914179519065523</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.3508244443677244</v>
+        <v>-0.3495396806684141</v>
       </c>
     </row>
     <row r="34">
